--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/en/ExportLCA.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/en/ExportLCA.xlsx
@@ -12,7 +12,7 @@
     <sheet name="LCA" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">LCA!$B$3:$P$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">LCA!$B$3:$O$3</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Product!$B$3:$H$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -90,7 +90,7 @@
     <t xml:space="preserve">entity|cm:name</t>
   </si>
   <si>
-    <t xml:space="preserve">bcpg:variantIds</t>
+    <t xml:space="preserve">entity|bcpg:code</t>
   </si>
   <si>
     <t xml:space="preserve">bcpg:lcaListLca</t>
@@ -126,10 +126,7 @@
     <t xml:space="preserve">bcpg:lcaListSimulatedValue</t>
   </si>
   <si>
-    <t xml:space="preserve">Entity name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variants</t>
+    <t xml:space="preserve">beCPG code</t>
   </si>
   <si>
     <t xml:space="preserve">LCA</t>
@@ -270,7 +267,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,10 +297,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -422,7 +415,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.84"/>
@@ -512,25 +505,27 @@
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="4" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="4" width="25.98"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="4" min="3" style="4" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="4" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="4" width="13.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="14.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1004" min="17" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="43.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="33.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="43.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="21.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="14.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1003" min="16" style="4" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -553,57 +548,54 @@
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="23.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -616,57 +608,54 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
     </row>
-    <row r="3" s="10" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="9" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="ALP3" s="0"/>
       <c r="ALQ3" s="0"/>
       <c r="ALR3" s="0"/>
       <c r="ALS3" s="0"/>
@@ -689,7 +678,7 @@
       <c r="AMJ3" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:P3"/>
+  <autoFilter ref="B3:O3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
